--- a/SuppXLS/Scen_AF_WIND.xlsx
+++ b/SuppXLS/Scen_AF_WIND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{968640EE-0CF0-45DA-9CB3-E870286B50AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00FCF181-0878-4A2B-9FF4-D23B322D70EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A1034-6F8D-4AB6-94D2-89E7BF9F1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AF_WIND_ON" sheetId="2" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>NCAP_AF</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t xml:space="preserve">NCAP_AF - availability of a process in a given timeslice </t>
   </si>
   <si>
@@ -768,6 +765,9 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -950,8 +950,8 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -969,7 +969,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2829,7 +2829,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2867,7 +2867,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2939,7 +2939,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3116,7 +3116,7 @@
   <dimension ref="B1:J230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3134,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F1" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G1" s="10">
         <f>AVERAGE(G7:G230)</f>
@@ -3174,136 +3174,136 @@
         <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E7" s="5">
         <v>2020</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G7" s="5">
         <v>0.18631054131054134</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E8" s="6">
         <v>2020</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G8" s="6">
         <v>0.18118233618233623</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E9" s="7">
         <v>2020</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G9" s="7">
         <v>0.18777777777777777</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E10" s="6">
         <v>2020</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G10" s="6">
         <v>0.21961538461538455</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E11" s="7">
         <v>2020</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7">
         <v>0.20752136752136757</v>
@@ -3311,19 +3311,19 @@
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E12" s="6">
         <v>2020</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G12" s="6">
         <v>0.19990028490028486</v>
@@ -3331,19 +3331,19 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E13" s="7">
         <v>2020</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7">
         <v>0.12874643874643871</v>
@@ -3351,19 +3351,19 @@
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E14" s="6">
         <v>2020</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G14" s="6">
         <v>9.2777777777777765E-2</v>
@@ -3371,19 +3371,19 @@
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E15" s="7">
         <v>2020</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G15" s="7">
         <v>9.5854700854700825E-2</v>
@@ -3391,19 +3391,19 @@
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E16" s="6">
         <v>2020</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G16" s="6">
         <v>0.12754985754985748</v>
@@ -3411,19 +3411,19 @@
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E17" s="7">
         <v>2020</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7">
         <v>0.1548005698005698</v>
@@ -3431,19 +3431,19 @@
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E18" s="6">
         <v>2020</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G18" s="6">
         <v>0.21737891737891743</v>
@@ -3451,19 +3451,19 @@
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E19" s="7">
         <v>2020</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7">
         <v>0.3016096866096864</v>
@@ -3471,19 +3471,19 @@
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E20" s="6">
         <v>2020</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G20" s="6">
         <v>0.25209401709401696</v>
@@ -3491,19 +3491,19 @@
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E21" s="7">
         <v>2020</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G21" s="7">
         <v>0.15898860398860393</v>
@@ -3511,19 +3511,19 @@
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E22" s="6">
         <v>2020</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G22" s="6">
         <v>0.1512678062678062</v>
@@ -3531,19 +3531,19 @@
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E23" s="7">
         <v>2020</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G23" s="7">
         <v>0.22059523809523798</v>
@@ -3551,19 +3551,19 @@
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E24" s="6">
         <v>2020</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="6">
         <v>0.26216931216931216</v>
@@ -3571,19 +3571,19 @@
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E25" s="7">
         <v>2020</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G25" s="7">
         <v>0.30224867724867732</v>
@@ -3591,19 +3591,19 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E26" s="6">
         <v>2020</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G26" s="6">
         <v>0.30546296296296288</v>
@@ -3611,19 +3611,19 @@
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E27" s="7">
         <v>2020</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G27" s="7">
         <v>0.30624338624338621</v>
@@ -3631,19 +3631,19 @@
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E28" s="6">
         <v>2020</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G28" s="6">
         <v>0.275595238095238</v>
@@ -3651,19 +3651,19 @@
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E29" s="7">
         <v>2020</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G29" s="7">
         <v>0.23593915343915339</v>
@@ -3671,19 +3671,19 @@
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E30" s="6">
         <v>2020</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G30" s="6">
         <v>0.24011904761904759</v>
@@ -3691,19 +3691,19 @@
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E31" s="7">
         <v>2020</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G31" s="7">
         <v>0.21240740740740746</v>
@@ -3711,19 +3711,19 @@
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E32" s="6">
         <v>2020</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G32" s="6">
         <v>0.18421957671957662</v>
@@ -3731,19 +3731,19 @@
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E33" s="7">
         <v>2020</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G33" s="7">
         <v>0.23280423280423282</v>
@@ -3751,19 +3751,19 @@
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E34" s="6">
         <v>2020</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G34" s="6">
         <v>0.28633597883597872</v>
@@ -3771,19 +3771,19 @@
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E35" s="7">
         <v>2020</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7">
         <v>0.31985449735449728</v>
@@ -3791,19 +3791,19 @@
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E36" s="6">
         <v>2020</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G36" s="6">
         <v>0.29634920634920625</v>
@@ -3811,19 +3811,19 @@
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E37" s="7">
         <v>2020</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7">
         <v>0.23453703703703693</v>
@@ -3831,19 +3831,19 @@
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E38" s="6">
         <v>2020</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G38" s="6">
         <v>0.22867724867724856</v>
@@ -3851,19 +3851,19 @@
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E39" s="7">
         <v>2020</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G39" s="7">
         <v>0.22641534391534379</v>
@@ -3871,19 +3871,19 @@
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E40" s="6">
         <v>2020</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G40" s="6">
         <v>0.22441798941798943</v>
@@ -3891,19 +3891,19 @@
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E41" s="7">
         <v>2020</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G41" s="7">
         <v>0.25345238095238087</v>
@@ -3911,19 +3911,19 @@
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E42" s="6">
         <v>2020</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G42" s="6">
         <v>0.25038461538461537</v>
@@ -3931,19 +3931,19 @@
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E43" s="7">
         <v>2020</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G43" s="7">
         <v>0.26028490028490031</v>
@@ -3951,19 +3951,19 @@
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E44" s="6">
         <v>2020</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G44" s="6">
         <v>0.29052706552706553</v>
@@ -3971,19 +3971,19 @@
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E45" s="7">
         <v>2020</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G45" s="7">
         <v>0.26571225071225069</v>
@@ -3991,19 +3991,19 @@
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E46" s="6">
         <v>2020</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G46" s="6">
         <v>0.24886039886039876</v>
@@ -4011,19 +4011,19 @@
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E47" s="7">
         <v>2020</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G47" s="7">
         <v>0.19783475783475779</v>
@@ -4031,19 +4031,19 @@
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E48" s="6">
         <v>2020</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G48" s="6">
         <v>0.15757834757834763</v>
@@ -4051,19 +4051,19 @@
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E49" s="7">
         <v>2020</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G49" s="7">
         <v>0.1705555555555556</v>
@@ -4071,19 +4071,19 @@
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E50" s="6">
         <v>2020</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G50" s="6">
         <v>0.23930199430199428</v>
@@ -4091,19 +4091,19 @@
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E51" s="7">
         <v>2020</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G51" s="7">
         <v>0.33676638176638174</v>
@@ -4111,19 +4111,19 @@
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E52" s="6">
         <v>2020</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G52" s="6">
         <v>0.32830484330484339</v>
@@ -4131,19 +4131,19 @@
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E53" s="7">
         <v>2020</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G53" s="7">
         <v>0.22368945868945866</v>
@@ -4151,19 +4151,19 @@
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E54" s="6">
         <v>2020</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G54" s="6">
         <v>0.19407407407407407</v>
@@ -4171,19 +4171,19 @@
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E55" s="7">
         <v>2020</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G55" s="7">
         <v>0.18262108262108262</v>
@@ -4191,19 +4191,19 @@
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E56" s="6">
         <v>2020</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G56" s="6">
         <v>0.16462962962962968</v>
@@ -4211,19 +4211,19 @@
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E57" s="7">
         <v>2020</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G57" s="7">
         <v>0.14693732193732195</v>
@@ -4231,19 +4231,19 @@
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E58" s="6">
         <v>2020</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G58" s="6">
         <v>0.14894586894586895</v>
@@ -4251,19 +4251,19 @@
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E59" s="7">
         <v>2020</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G59" s="7">
         <v>0.14336182336182335</v>
@@ -4271,19 +4271,19 @@
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E60" s="6">
         <v>2020</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G60" s="6">
         <v>9.0726495726495701E-2</v>
@@ -4291,19 +4291,19 @@
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E61" s="7">
         <v>2020</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G61" s="7">
         <v>7.1039886039886022E-2</v>
@@ -4311,19 +4311,19 @@
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E62" s="6">
         <v>2020</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G62" s="6">
         <v>0.14330484330484325</v>
@@ -4331,19 +4331,19 @@
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E63" s="7">
         <v>2020</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G63" s="7">
         <v>0.30433048433048426</v>
@@ -4351,19 +4351,19 @@
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E64" s="6">
         <v>2020</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G64" s="6">
         <v>0.24411680911680911</v>
@@ -4371,19 +4371,19 @@
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E65" s="7">
         <v>2020</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G65" s="7">
         <v>0.27108262108262104</v>
@@ -4391,19 +4391,19 @@
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E66" s="6">
         <v>2020</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G66" s="6">
         <v>0.35856125356125351</v>
@@ -4411,19 +4411,19 @@
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E67" s="7">
         <v>2020</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G67" s="7">
         <v>0.31656695156695153</v>
@@ -4431,19 +4431,19 @@
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E68" s="6">
         <v>2020</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G68" s="6">
         <v>0.20682336182336186</v>
@@ -4451,19 +4451,19 @@
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E69" s="7">
         <v>2020</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G69" s="7">
         <v>0.15950142450142449</v>
@@ -4471,19 +4471,19 @@
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E70" s="6">
         <v>2020</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G70" s="6">
         <v>0.19113960113960107</v>
@@ -4491,19 +4491,19 @@
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E71" s="7">
         <v>2020</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G71" s="7">
         <v>0.15763532763532764</v>
@@ -4511,19 +4511,19 @@
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E72" s="6">
         <v>2020</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G72" s="6">
         <v>0.19978632478632474</v>
@@ -4531,19 +4531,19 @@
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E73" s="7">
         <v>2020</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G73" s="7">
         <v>0.21723646723646717</v>
@@ -4551,19 +4551,19 @@
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E74" s="6">
         <v>2020</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G74" s="6">
         <v>0.24444444444444441</v>
@@ -4571,19 +4571,19 @@
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E75" s="7">
         <v>2020</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G75" s="7">
         <v>0.26915954415954413</v>
@@ -4591,19 +4591,19 @@
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E76" s="6">
         <v>2020</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G76" s="6">
         <v>0.28299145299145306</v>
@@ -4611,19 +4611,19 @@
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E77" s="7">
         <v>2020</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G77" s="7">
         <v>0.2272934472934473</v>
@@ -4631,19 +4631,19 @@
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E78" s="6">
         <v>2020</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G78" s="6">
         <v>0.22836182336182334</v>
@@ -4651,19 +4651,19 @@
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E79" s="7">
         <v>2020</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G79" s="7">
         <v>0.23615384615384613</v>
@@ -4671,19 +4671,19 @@
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E80" s="6">
         <v>2020</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G80" s="6">
         <v>0.27545584045584032</v>
@@ -4691,19 +4691,19 @@
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E81" s="7">
         <v>2020</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G81" s="7">
         <v>0.31908831908831897</v>
@@ -4711,19 +4711,19 @@
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E82" s="6">
         <v>2020</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G82" s="6">
         <v>0.40347578347578339</v>
@@ -4731,19 +4731,19 @@
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E83" s="7">
         <v>2020</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G83" s="7">
         <v>0.39039886039886046</v>
@@ -4751,19 +4751,19 @@
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E84" s="6">
         <v>2020</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G84" s="6">
         <v>0.3292307692307691</v>
@@ -4771,19 +4771,19 @@
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E85" s="7">
         <v>2020</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G85" s="7">
         <v>0.28296296296296292</v>
@@ -4791,19 +4791,19 @@
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E86" s="6">
         <v>2020</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G86" s="6">
         <v>0.29883190883190874</v>
@@ -4811,19 +4811,19 @@
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E87" s="7">
         <v>2020</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G87" s="7">
         <v>0.27910256410256395</v>
@@ -4831,19 +4831,19 @@
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E88" s="6">
         <v>2020</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G88" s="6">
         <v>0.27762108262108248</v>
@@ -4851,19 +4851,19 @@
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E89" s="7">
         <v>2020</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G89" s="7">
         <v>0.32337606837606825</v>
@@ -4871,19 +4871,19 @@
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E90" s="6">
         <v>2020</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G90" s="6">
         <v>0.37698005698005693</v>
@@ -4891,19 +4891,19 @@
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E91" s="7">
         <v>2020</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G91" s="7">
         <v>0.39427350427350422</v>
@@ -4911,19 +4911,19 @@
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E92" s="6">
         <v>2020</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G92" s="6">
         <v>0.3464102564102563</v>
@@ -4931,19 +4931,19 @@
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E93" s="7">
         <v>2020</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G93" s="7">
         <v>0.22007122507122504</v>
@@ -4951,19 +4951,19 @@
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E94" s="6">
         <v>2020</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G94" s="6">
         <v>0.21421652421652418</v>
@@ -4971,19 +4971,19 @@
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E95" s="7">
         <v>2020</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G95" s="7">
         <v>0.20200854700854701</v>
@@ -4991,19 +4991,19 @@
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E96" s="6">
         <v>2020</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G96" s="6">
         <v>0.19549857549857552</v>
@@ -5011,19 +5011,19 @@
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E97" s="7">
         <v>2020</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G97" s="7">
         <v>0.26230769230769224</v>
@@ -5031,19 +5031,19 @@
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E98" s="6">
         <v>2020</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G98" s="6">
         <v>0.38611111111111124</v>
@@ -5051,19 +5051,19 @@
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E99" s="7">
         <v>2020</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G99" s="7">
         <v>0.38186507936507957</v>
@@ -5071,19 +5071,19 @@
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E100" s="6">
         <v>2020</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G100" s="6">
         <v>0.2954761904761905</v>
@@ -5091,19 +5091,19 @@
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E101" s="7">
         <v>2020</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G101" s="7">
         <v>0.21316137566137566</v>
@@ -5111,19 +5111,19 @@
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E102" s="6">
         <v>2020</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G102" s="6">
         <v>0.226957671957672</v>
@@ -5131,19 +5131,19 @@
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E103" s="7">
         <v>2020</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G103" s="7">
         <v>0.25951058201058208</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E104" s="6">
         <v>2020</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G104" s="6">
         <v>0.29403439153439159</v>
@@ -5171,19 +5171,19 @@
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E105" s="7">
         <v>2020</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G105" s="7">
         <v>0.32869047619047631</v>
@@ -5191,19 +5191,19 @@
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E106" s="6">
         <v>2020</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G106" s="6">
         <v>0.33518518518518509</v>
@@ -5211,19 +5211,19 @@
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E107" s="7">
         <v>2020</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G107" s="7">
         <v>0.30894179894179891</v>
@@ -5231,19 +5231,19 @@
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E108" s="6">
         <v>2020</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G108" s="6">
         <v>0.26017195767195767</v>
@@ -5251,19 +5251,19 @@
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E109" s="7">
         <v>2020</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G109" s="7">
         <v>0.22615079365079369</v>
@@ -5271,19 +5271,19 @@
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E110" s="6">
         <v>2020</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G110" s="6">
         <v>0.23243386243386235</v>
@@ -5291,19 +5291,19 @@
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E111" s="7">
         <v>2020</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G111" s="7">
         <v>0.26380341880341884</v>
@@ -5311,19 +5311,19 @@
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E112" s="6">
         <v>2020</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G112" s="6">
         <v>0.26257834757834753</v>
@@ -5331,19 +5331,19 @@
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E113" s="7">
         <v>2020</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G113" s="7">
         <v>0.32659544159544157</v>
@@ -5351,19 +5351,19 @@
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E114" s="6">
         <v>2020</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G114" s="6">
         <v>0.42435897435897435</v>
@@ -5371,19 +5371,19 @@
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E115" s="7">
         <v>2020</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G115" s="7">
         <v>0.42232193732193735</v>
@@ -5391,19 +5391,19 @@
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E116" s="6">
         <v>2020</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G116" s="6">
         <v>0.34827635327635331</v>
@@ -5411,19 +5411,19 @@
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E117" s="7">
         <v>2020</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G117" s="7">
         <v>0.28418803418803423</v>
@@ -5431,19 +5431,19 @@
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E118" s="6">
         <v>2020</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G118" s="6">
         <v>0.29816239316239312</v>
@@ -5451,19 +5451,19 @@
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E119" s="7">
         <v>2020</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G119" s="7">
         <v>0.2884330484330484</v>
@@ -5471,19 +5471,19 @@
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E120" s="6">
         <v>2020</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G120" s="6">
         <v>0.30150997150997144</v>
@@ -5491,19 +5491,19 @@
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E121" s="7">
         <v>2020</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G121" s="7">
         <v>0.33853276353276346</v>
@@ -5511,19 +5511,19 @@
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E122" s="6">
         <v>2020</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G122" s="6">
         <v>0.36817663817663809</v>
@@ -5531,19 +5531,19 @@
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E123" s="7">
         <v>2020</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G123" s="7">
         <v>0.36766381766381767</v>
@@ -5551,19 +5551,19 @@
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E124" s="6">
         <v>2020</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G124" s="6">
         <v>0.36141025641025643</v>
@@ -5571,19 +5571,19 @@
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E125" s="7">
         <v>2020</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G125" s="7">
         <v>0.35603988603988612</v>
@@ -5591,19 +5591,19 @@
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E126" s="6">
         <v>2020</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G126" s="6">
         <v>0.34078347578347579</v>
@@ -5611,19 +5611,19 @@
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E127" s="7">
         <v>2020</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G127" s="7">
         <v>0.31948717948717953</v>
@@ -5631,19 +5631,19 @@
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E128" s="6">
         <v>2020</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G128" s="6">
         <v>0.32252136752136751</v>
@@ -5651,19 +5651,19 @@
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E129" s="7">
         <v>2020</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G129" s="7">
         <v>0.29178062678062677</v>
@@ -5671,19 +5671,19 @@
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E130" s="6">
         <v>2020</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G130" s="6">
         <v>0.28598290598290593</v>
@@ -5691,19 +5691,19 @@
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E131" s="7">
         <v>2020</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G131" s="7">
         <v>0.28336182336182336</v>
@@ -5711,19 +5711,19 @@
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E132" s="6">
         <v>2020</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G132" s="6">
         <v>0.22776353276353276</v>
@@ -5731,19 +5731,19 @@
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E133" s="7">
         <v>2020</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G133" s="7">
         <v>0.2004415954415954</v>
@@ -5751,19 +5751,19 @@
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E134" s="6">
         <v>2020</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G134" s="6">
         <v>0.15877492877492874</v>
@@ -5771,19 +5771,19 @@
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E135" s="7">
         <v>2020</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G135" s="7">
         <v>0.14784900284900285</v>
@@ -5791,19 +5791,19 @@
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E136" s="6">
         <v>2020</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G136" s="6">
         <v>0.16564102564102562</v>
@@ -5811,19 +5811,19 @@
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E137" s="7">
         <v>2020</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G137" s="7">
         <v>0.26626780626780633</v>
@@ -5831,19 +5831,19 @@
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E138" s="6">
         <v>2020</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G138" s="6">
         <v>0.34333333333333327</v>
@@ -5851,19 +5851,19 @@
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E139" s="7">
         <v>2020</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G139" s="7">
         <v>0.29623931623931626</v>
@@ -5871,19 +5871,19 @@
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E140" s="6">
         <v>2020</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G140" s="6">
         <v>0.24773504273504274</v>
@@ -5891,19 +5891,19 @@
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E141" s="7">
         <v>2020</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G141" s="7">
         <v>0.27894586894586892</v>
@@ -5911,19 +5911,19 @@
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E142" s="6">
         <v>2020</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G142" s="6">
         <v>0.29950142450142447</v>
@@ -5931,19 +5931,19 @@
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E143" s="7">
         <v>2020</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G143" s="7">
         <v>0.297094017094017</v>
@@ -5951,19 +5951,19 @@
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E144" s="6">
         <v>2020</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G144" s="6">
         <v>0.29082621082621085</v>
@@ -5971,19 +5971,19 @@
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E145" s="7">
         <v>2020</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G145" s="7">
         <v>0.32041310541310541</v>
@@ -5991,19 +5991,19 @@
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E146" s="6">
         <v>2020</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G146" s="6">
         <v>0.33529914529914534</v>
@@ -6011,19 +6011,19 @@
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E147" s="7">
         <v>2020</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G147" s="7">
         <v>0.29321937321937325</v>
@@ -6031,19 +6031,19 @@
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E148" s="6">
         <v>2020</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G148" s="6">
         <v>0.27350427350427342</v>
@@ -6051,19 +6051,19 @@
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E149" s="7">
         <v>2020</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G149" s="7">
         <v>0.35653846153846147</v>
@@ -6071,19 +6071,19 @@
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E150" s="6">
         <v>2020</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G150" s="6">
         <v>0.38136752136752133</v>
@@ -6091,19 +6091,19 @@
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E151" s="7">
         <v>2020</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G151" s="7">
         <v>0.36974358974358962</v>
@@ -6111,19 +6111,19 @@
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E152" s="6">
         <v>2020</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G152" s="6">
         <v>0.33682336182336176</v>
@@ -6131,19 +6131,19 @@
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E153" s="7">
         <v>2020</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G153" s="7">
         <v>0.3443732193732193</v>
@@ -6151,19 +6151,19 @@
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E154" s="6">
         <v>2020</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G154" s="6">
         <v>0.39858974358974347</v>
@@ -6171,19 +6171,19 @@
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E155" s="7">
         <v>2020</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G155" s="7">
         <v>0.40216524216524224</v>
@@ -6191,19 +6191,19 @@
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E156" s="6">
         <v>2020</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G156" s="6">
         <v>0.35113960113960135</v>
@@ -6211,19 +6211,19 @@
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E157" s="7">
         <v>2020</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G157" s="7">
         <v>0.35205128205128206</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E158" s="6">
         <v>2020</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G158" s="6">
         <v>0.32514245014245008</v>
@@ -6251,19 +6251,19 @@
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E159" s="7">
         <v>2020</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G159" s="7">
         <v>0.34509259259259256</v>
@@ -6271,19 +6271,19 @@
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E160" s="6">
         <v>2020</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G160" s="6">
         <v>0.37524691358024692</v>
@@ -6291,19 +6291,19 @@
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E161" s="7">
         <v>2020</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G161" s="7">
         <v>0.40808641975308646</v>
@@ -6311,19 +6311,19 @@
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E162" s="6">
         <v>2020</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G162" s="6">
         <v>0.43234567901234555</v>
@@ -6331,19 +6331,19 @@
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E163" s="7">
         <v>2020</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G163" s="7">
         <v>0.43106481481481479</v>
@@ -6351,19 +6351,19 @@
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E164" s="6">
         <v>2020</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G164" s="6">
         <v>0.38118827160493818</v>
@@ -6371,19 +6371,19 @@
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E165" s="7">
         <v>2020</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G165" s="7">
         <v>0.33899691358024697</v>
@@ -6391,19 +6391,19 @@
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E166" s="6">
         <v>2020</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G166" s="6">
         <v>0.33922839506172831</v>
@@ -6411,19 +6411,19 @@
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E167" s="7">
         <v>2020</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G167" s="7">
         <v>0.29854700854700855</v>
@@ -6431,19 +6431,19 @@
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E168" s="6">
         <v>2020</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G168" s="6">
         <v>0.31408831908831908</v>
@@ -6451,19 +6451,19 @@
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E169" s="7">
         <v>2020</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G169" s="7">
         <v>0.34340455840455836</v>
@@ -6471,19 +6471,19 @@
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E170" s="6">
         <v>2020</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G170" s="6">
         <v>0.35917378917378912</v>
@@ -6491,19 +6491,19 @@
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E171" s="7">
         <v>2020</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G171" s="7">
         <v>0.32769230769230756</v>
@@ -6511,19 +6511,19 @@
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E172" s="6">
         <v>2020</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G172" s="6">
         <v>0.28616809116809111</v>
@@ -6531,19 +6531,19 @@
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E173" s="7">
         <v>2020</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G173" s="7">
         <v>0.27368945868945876</v>
@@ -6551,19 +6551,19 @@
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E174" s="6">
         <v>2020</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G174" s="6">
         <v>0.29319088319088321</v>
@@ -6571,19 +6571,19 @@
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E175" s="7">
         <v>2020</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G175" s="7">
         <v>0.60101851851851862</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E176" s="6">
         <v>2020</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G176" s="6">
         <v>0.56875661375661379</v>
@@ -6611,19 +6611,19 @@
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E177" s="7">
         <v>2020</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G177" s="7">
         <v>0.53120370370370362</v>
@@ -6631,19 +6631,19 @@
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E178" s="6">
         <v>2020</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G178" s="6">
         <v>0.53661375661375676</v>
@@ -6651,19 +6651,19 @@
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E179" s="7">
         <v>2020</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G179" s="7">
         <v>0.54476190476190489</v>
@@ -6671,19 +6671,19 @@
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E180" s="6">
         <v>2020</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G180" s="6">
         <v>0.52660052910052912</v>
@@ -6691,19 +6691,19 @@
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E181" s="7">
         <v>2020</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G181" s="7">
         <v>0.47579365079365099</v>
@@ -6711,19 +6711,19 @@
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E182" s="6">
         <v>2020</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G182" s="6">
         <v>0.42171957671957677</v>
@@ -6731,19 +6731,19 @@
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E183" s="7">
         <v>2020</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G183" s="7">
         <v>0.34111111111111098</v>
@@ -6751,19 +6751,19 @@
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E184" s="6">
         <v>2020</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G184" s="6">
         <v>0.32772079772079754</v>
@@ -6771,19 +6771,19 @@
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E185" s="7">
         <v>2020</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G185" s="7">
         <v>0.29454415954415958</v>
@@ -6791,19 +6791,19 @@
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E186" s="6">
         <v>2020</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G186" s="6">
         <v>0.30990028490028498</v>
@@ -6811,19 +6811,19 @@
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E187" s="7">
         <v>2020</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G187" s="7">
         <v>0.32052706552706545</v>
@@ -6831,19 +6831,19 @@
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E188" s="6">
         <v>2020</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G188" s="6">
         <v>0.31819088319088307</v>
@@ -6851,19 +6851,19 @@
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E189" s="7">
         <v>2020</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G189" s="7">
         <v>0.3416096866096866</v>
@@ -6871,19 +6871,19 @@
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E190" s="6">
         <v>2020</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G190" s="6">
         <v>0.40168091168091152</v>
@@ -6891,19 +6891,19 @@
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E191" s="7">
         <v>2020</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G191" s="7">
         <v>0.42629629629629617</v>
@@ -6911,19 +6911,19 @@
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E192" s="6">
         <v>2020</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G192" s="6">
         <v>0.43293209876543215</v>
@@ -6931,19 +6931,19 @@
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E193" s="7">
         <v>2020</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G193" s="7">
         <v>0.48245370370370388</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E194" s="6">
         <v>2020</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G194" s="6">
         <v>0.49618827160493834</v>
@@ -6971,19 +6971,19 @@
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E195" s="7">
         <v>2020</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G195" s="7">
         <v>0.49299382716049372</v>
@@ -6991,19 +6991,19 @@
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E196" s="6">
         <v>2020</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G196" s="6">
         <v>0.49266975308641975</v>
@@ -7011,19 +7011,19 @@
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E197" s="7">
         <v>2020</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G197" s="7">
         <v>0.51640432098765443</v>
@@ -7031,19 +7031,19 @@
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E198" s="6">
         <v>2020</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G198" s="6">
         <v>0.52915123456790114</v>
@@ -7051,19 +7051,19 @@
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E199" s="7">
         <v>2020</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G199" s="7">
         <v>0.55066358024691342</v>
@@ -7071,19 +7071,19 @@
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E200" s="6">
         <v>2020</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G200" s="6">
         <v>0.55018518518518522</v>
@@ -7091,19 +7091,19 @@
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E201" s="7">
         <v>2020</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G201" s="7">
         <v>0.5405709876543211</v>
@@ -7111,19 +7111,19 @@
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E202" s="6">
         <v>2020</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G202" s="6">
         <v>0.51074074074074061</v>
@@ -7131,19 +7131,19 @@
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E203" s="7">
         <v>2020</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G203" s="7">
         <v>0.50623456790123467</v>
@@ -7151,19 +7151,19 @@
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E204" s="6">
         <v>2020</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G204" s="6">
         <v>0.47319444444444436</v>
@@ -7171,19 +7171,19 @@
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E205" s="7">
         <v>2020</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G205" s="7">
         <v>0.45706790123456792</v>
@@ -7191,19 +7191,19 @@
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E206" s="6">
         <v>2020</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G206" s="6">
         <v>0.42182098765432097</v>
@@ -7211,19 +7211,19 @@
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E207" s="7">
         <v>2020</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G207" s="7">
         <v>0.44100308641975294</v>
@@ -7231,19 +7231,19 @@
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E208" s="6">
         <v>2020</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G208" s="6">
         <v>0.4674537037037037</v>
@@ -7251,19 +7251,19 @@
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E209" s="7">
         <v>2020</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G209" s="7">
         <v>0.48891975308641961</v>
@@ -7271,19 +7271,19 @@
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E210" s="6">
         <v>2020</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G210" s="6">
         <v>0.5423919753086418</v>
@@ -7291,19 +7291,19 @@
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E211" s="7">
         <v>2020</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G211" s="7">
         <v>0.56864197530864202</v>
@@ -7311,19 +7311,19 @@
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E212" s="6">
         <v>2020</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G212" s="6">
         <v>0.57550925925925922</v>
@@ -7331,19 +7331,19 @@
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E213" s="7">
         <v>2020</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G213" s="7">
         <v>0.60679012345679029</v>
@@ -7351,19 +7351,19 @@
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E214" s="6">
         <v>2020</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G214" s="6">
         <v>0.62317901234567918</v>
@@ -7371,19 +7371,19 @@
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E215" s="7">
         <v>2020</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G215" s="7">
         <v>0.57703703703703701</v>
@@ -7391,19 +7391,19 @@
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E216" s="6">
         <v>2020</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G216" s="6">
         <v>0.58213675213675231</v>
@@ -7411,19 +7411,19 @@
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E217" s="7">
         <v>2020</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G217" s="7">
         <v>0.59934472934472927</v>
@@ -7431,19 +7431,19 @@
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E218" s="6">
         <v>2020</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G218" s="6">
         <v>0.63081196581196586</v>
@@ -7451,19 +7451,19 @@
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E219" s="7">
         <v>2020</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G219" s="7">
         <v>0.63719373219373232</v>
@@ -7471,19 +7471,19 @@
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E220" s="6">
         <v>2020</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G220" s="6">
         <v>0.59752136752136764</v>
@@ -7491,19 +7491,19 @@
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E221" s="7">
         <v>2020</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G221" s="7">
         <v>0.55119658119658133</v>
@@ -7511,19 +7511,19 @@
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E222" s="6">
         <v>2020</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G222" s="6">
         <v>0.4958119658119659</v>
@@ -7531,19 +7531,19 @@
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E223" s="7">
         <v>2020</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G223" s="7">
         <v>0.47404558404558411</v>
@@ -7551,19 +7551,19 @@
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E224" s="6">
         <v>2020</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G224" s="6">
         <v>0.51608262108262104</v>
@@ -7571,19 +7571,19 @@
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E225" s="7">
         <v>2020</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G225" s="7">
         <v>0.56021367521367538</v>
@@ -7591,19 +7591,19 @@
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E226" s="6">
         <v>2020</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G226" s="6">
         <v>0.57918803418803455</v>
@@ -7611,19 +7611,19 @@
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E227" s="7">
         <v>2020</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G227" s="7">
         <v>0.57903133903133908</v>
@@ -7631,19 +7631,19 @@
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E228" s="6">
         <v>2020</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G228" s="6">
         <v>0.55665242165242179</v>
@@ -7651,19 +7651,19 @@
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E229" s="7">
         <v>2020</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G229" s="7">
         <v>0.58175213675213688</v>
@@ -7671,19 +7671,19 @@
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B230" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E230" s="8">
         <v>2020</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G230" s="8">
         <v>0.60948717948717934</v>
@@ -7696,26 +7696,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -7910,10 +7890,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1DAA58-FAE3-45B9-9E11-80CEEB4D9194}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C97C7A-A178-4BE2-B7DD-111F8EA14DD2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7932,20 +7943,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C97C7A-A178-4BE2-B7DD-111F8EA14DD2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1DAA58-FAE3-45B9-9E11-80CEEB4D9194}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>